--- a/doc/git.xlsx
+++ b/doc/git.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\95.학습\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="12585"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="ssh" sheetId="3" r:id="rId3"/>
     <sheet name="cat" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>git</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +291,6 @@
   </si>
   <si>
     <t>요약</t>
-  </si>
-  <si>
-    <t>git push --set-upstream origin master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>repository 파일 올리기</t>
@@ -373,6 +364,118 @@
 --graph
 --oneline
 --decorate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone (url or ssh)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat ~/.ssh/id_rsa.pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 파일 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch (url or ssh)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remote 서버에 있는 파일을 모두  local 로 가져오기
+(remote 서버의 데이터와 local 의 데이터가 자동 병합됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remote 서버에 있는 파일을 모두  local 로 가져오기
+(remote 서버의 데이터와 local 의 데이터가 자동 병합 안됨.
+추후 사용자가 수동 merge 해야 함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show [branchName]
+rename [old branchName] [new branchName]
+remove [branchName]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch 정보 보여주기
+branch 명 변경하기
+branch 삭제하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git show [tag]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a
+-m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annotated 태그 만들기
+Annotated 태그 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git tag -a v1.0.0
+git tag v.1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annotated 태그 만들기
+Lightweight 태그 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+'--tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+생성한 tag 를 remote 서버에 모두 올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push --set-upstream [branchName] master
+git push [branchName] --tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout [branchName]
+git checkout -b [branchName] [tag]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch 로 작업영역 변경
+tag 의 내용을 가져와서, branch 만들고, 작업영역 변경하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,8 +641,36 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFCA7D"/>
@@ -599,7 +730,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,7 +765,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -811,7 +942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -819,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -832,7 +963,7 @@
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.375" customWidth="1"/>
     <col min="4" max="4" width="49.125" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -864,13 +995,13 @@
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -948,64 +1079,133 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>5</v>
+      <c r="C12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="E15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1161,23 +1361,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1194,20 +1393,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1248,13 +1459,13 @@
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
